--- a/sg/mappingFHIR-ROR/ig/StructureDefinition-ror-location.xlsx
+++ b/sg/mappingFHIR-ROR/ig/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-24T16:23:30+00:00</t>
+    <t>2026-01-05T09:58:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sg/mappingFHIR-ROR/ig/StructureDefinition-ror-location.xlsx
+++ b/sg/mappingFHIR-ROR/ig/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-05T09:58:39+00:00</t>
+    <t>2026-01-05T15:01:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sg/mappingFHIR-ROR/ig/StructureDefinition-ror-location.xlsx
+++ b/sg/mappingFHIR-ROR/ig/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-05T15:01:18+00:00</t>
+    <t>2026-01-07T09:10:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sg/mappingFHIR-ROR/ig/StructureDefinition-ror-location.xlsx
+++ b/sg/mappingFHIR-ROR/ig/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-07T09:10:41+00:00</t>
+    <t>2026-01-26T13:52:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/sg/mappingFHIR-ROR/ig/StructureDefinition-ror-location.xlsx
+++ b/sg/mappingFHIR-ROR/ig/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-26T13:52:52+00:00</t>
+    <t>2026-01-26T14:22:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2217,7 +2217,7 @@
 </t>
   </si>
   <si>
-    <t>Organization responsible for provisioning and upkeep</t>
+    <t>Hors périmètre du modèle d'exposition du ROR, ce champ est utilisé dans le cas suivant : le Lieu de Réalisation (Location) n'est rattaché à aucune Offre Opérationnelle (HealthcareService), la Location ne pourra alors être rattachée qu'à un ou des HealthcareServices ayant comme parent cette Organization qui doit obligatoirement être une EG</t>
   </si>
   <si>
     <t>The organization responsible for the provisioning and upkeep of the location.</t>

--- a/sg/mappingFHIR-ROR/ig/StructureDefinition-ror-location.xlsx
+++ b/sg/mappingFHIR-ROR/ig/StructureDefinition-ror-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-26T14:22:26+00:00</t>
+    <t>2026-01-26T14:31:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
